--- a/props_config_tool/Props_config.xlsx
+++ b/props_config_tool/Props_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/props_config_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CA8FC4-5E0D-6C4F-8EBE-FC2B43BDC5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD9B088-8890-1C42-A8A3-1F77CEF8DE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-19940" windowWidth="35600" windowHeight="19000" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -179,9 +179,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,9 +194,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +517,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -526,83 +526,83 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11" t="s">
+      <c r="D1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="7" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="7" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="8" t="s">
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="7" t="s">
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="8" t="s">
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="7" t="s">
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="8" t="s">
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
     </row>
     <row r="2" spans="1:58">
       <c r="A2" s="1" t="s">
@@ -780,17 +780,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="13" customFormat="1">
-      <c r="A3" s="12">
+    <row r="3" spans="1:58" s="8" customFormat="1">
+      <c r="A3" s="7">
         <v>15</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="9">
         <v>28200</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
         <v>28200</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="7"/>
       <c r="E3">
         <v>31</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="M3">
         <v>5</v>
       </c>
-      <c r="N3" s="12"/>
+      <c r="N3" s="7"/>
       <c r="O3">
         <v>37</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="R3">
         <v>5</v>
       </c>
-      <c r="S3" s="12"/>
+      <c r="S3" s="7"/>
       <c r="T3">
         <v>31</v>
       </c>
@@ -841,53 +841,53 @@
       <c r="W3">
         <v>5</v>
       </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-    </row>
-    <row r="4" spans="1:58" s="13" customFormat="1">
-      <c r="A4" s="12">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+    </row>
+    <row r="4" spans="1:58" s="8" customFormat="1">
+      <c r="A4" s="7">
         <v>15</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="9">
         <v>28000</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
         <v>28000</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="7"/>
       <c r="E4">
         <v>31</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="M4">
         <v>5</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="7"/>
       <c r="O4">
         <v>37</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="R4">
         <v>5</v>
       </c>
-      <c r="S4" s="12"/>
+      <c r="S4" s="7"/>
       <c r="T4">
         <v>31</v>
       </c>
@@ -938,53 +938,53 @@
       <c r="W4">
         <v>5</v>
       </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-    </row>
-    <row r="5" spans="1:58" s="13" customFormat="1">
-      <c r="A5" s="12">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+    </row>
+    <row r="5" spans="1:58" s="8" customFormat="1">
+      <c r="A5" s="7">
         <v>15</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
         <v>28400</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="9">
         <v>28400</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="7"/>
       <c r="E5">
         <v>31</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="7"/>
       <c r="O5">
         <v>37</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="R5">
         <v>5</v>
       </c>
-      <c r="S5" s="12"/>
+      <c r="S5" s="7"/>
       <c r="T5">
         <v>31</v>
       </c>
@@ -1035,53 +1035,53 @@
       <c r="W5">
         <v>5</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-    </row>
-    <row r="6" spans="1:58" s="13" customFormat="1">
-      <c r="A6" s="12">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+    </row>
+    <row r="6" spans="1:58" s="8" customFormat="1">
+      <c r="A6" s="7">
         <v>15</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="9">
         <v>28600</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>28600</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="7"/>
       <c r="E6">
         <v>31</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="M6">
         <v>5</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="7"/>
       <c r="O6">
         <v>37</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="R6">
         <v>5</v>
       </c>
-      <c r="S6" s="12"/>
+      <c r="S6" s="7"/>
       <c r="T6">
         <v>31</v>
       </c>
@@ -1132,53 +1132,53 @@
       <c r="W6">
         <v>5</v>
       </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-    </row>
-    <row r="7" spans="1:58" s="13" customFormat="1">
-      <c r="A7" s="12">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+    </row>
+    <row r="7" spans="1:58" s="8" customFormat="1">
+      <c r="A7" s="7">
         <v>15</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="9">
         <v>28100</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="9">
         <v>28100</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="7"/>
       <c r="E7">
         <v>31</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="M7">
         <v>5</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="7"/>
       <c r="O7">
         <v>37</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="R7">
         <v>5</v>
       </c>
-      <c r="S7" s="12"/>
+      <c r="S7" s="7"/>
       <c r="T7">
         <v>31</v>
       </c>
@@ -1229,53 +1229,53 @@
       <c r="W7">
         <v>5</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-    </row>
-    <row r="8" spans="1:58" s="13" customFormat="1">
-      <c r="A8" s="12">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="7"/>
+    </row>
+    <row r="8" spans="1:58" s="8" customFormat="1">
+      <c r="A8" s="7">
         <v>15</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <v>28700</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>28700</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="7"/>
       <c r="E8">
         <v>31</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="M8">
         <v>5</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="7"/>
       <c r="O8">
         <v>37</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="R8">
         <v>5</v>
       </c>
-      <c r="S8" s="12"/>
+      <c r="S8" s="7"/>
       <c r="T8">
         <v>31</v>
       </c>
@@ -1326,53 +1326,53 @@
       <c r="W8">
         <v>5</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-    </row>
-    <row r="9" spans="1:58" s="13" customFormat="1">
-      <c r="A9" s="12">
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+    </row>
+    <row r="9" spans="1:58" s="8" customFormat="1">
+      <c r="A9" s="7">
         <v>15</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>28500</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="9">
         <v>28500</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="7"/>
       <c r="E9">
         <v>31</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="M9">
         <v>5</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="7"/>
       <c r="O9">
         <v>37</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="R9">
         <v>5</v>
       </c>
-      <c r="S9" s="12"/>
+      <c r="S9" s="7"/>
       <c r="T9">
         <v>31</v>
       </c>
@@ -1423,53 +1423,53 @@
       <c r="W9">
         <v>5</v>
       </c>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="12"/>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="12"/>
-      <c r="AX9" s="12"/>
-      <c r="AY9" s="12"/>
-      <c r="AZ9" s="12"/>
-      <c r="BA9" s="12"/>
-      <c r="BB9" s="12"/>
-      <c r="BC9" s="12"/>
-      <c r="BD9" s="12"/>
-      <c r="BE9" s="12"/>
-      <c r="BF9" s="12"/>
-    </row>
-    <row r="10" spans="1:58" s="13" customFormat="1">
-      <c r="A10" s="12">
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+    </row>
+    <row r="10" spans="1:58" s="8" customFormat="1">
+      <c r="A10" s="7">
         <v>15</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="9">
         <v>28300</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="9">
         <v>28300</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="7"/>
       <c r="E10">
         <v>31</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="M10">
         <v>5</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="7"/>
       <c r="O10">
         <v>37</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="R10">
         <v>5</v>
       </c>
-      <c r="S10" s="12"/>
+      <c r="S10" s="7"/>
       <c r="T10">
         <v>31</v>
       </c>
@@ -1520,41 +1520,41 @@
       <c r="W10">
         <v>5</v>
       </c>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="12"/>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
-      <c r="AY10" s="12"/>
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="12"/>
-      <c r="BB10" s="12"/>
-      <c r="BC10" s="12"/>
-      <c r="BD10" s="12"/>
-      <c r="BE10" s="12"/>
-      <c r="BF10" s="12"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
     </row>
     <row r="11" spans="1:58">
       <c r="A11">
@@ -7530,41 +7530,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="C1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="7" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">

--- a/props_config_tool/Props_config.xlsx
+++ b/props_config_tool/Props_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/props_config_tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/props_config_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD9B088-8890-1C42-A8A3-1F77CEF8DE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D273C-5FA6-7341-ADB5-06E90B227D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -511,13 +511,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73913924-0A5A-F941-A24F-5EE34CEF41DB}">
-  <dimension ref="A1:BF205"/>
+  <dimension ref="A1:BF211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="G215" sqref="G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -7143,7 +7143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:33">
       <c r="A193">
         <v>13</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:33">
       <c r="A194">
         <v>15</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:33">
       <c r="A195">
         <v>15</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:33">
       <c r="A196">
         <v>15</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:33">
       <c r="A197">
         <v>15</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:33">
       <c r="A198">
         <v>15</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:33">
       <c r="A199">
         <v>15</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:33">
       <c r="A200">
         <v>15</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:33">
       <c r="A201">
         <v>15</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:33">
       <c r="A202">
         <v>5</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:33">
       <c r="A203">
         <v>5</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:33">
       <c r="A204">
         <v>5</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:33">
       <c r="A205">
         <v>5</v>
       </c>
@@ -7491,6 +7491,504 @@
       </c>
       <c r="M205">
         <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:33">
+      <c r="A206">
+        <v>16</v>
+      </c>
+      <c r="B206" s="9">
+        <v>30900</v>
+      </c>
+      <c r="C206" s="9">
+        <v>30900</v>
+      </c>
+      <c r="E206">
+        <v>37</v>
+      </c>
+      <c r="F206">
+        <v>5</v>
+      </c>
+      <c r="G206">
+        <v>38</v>
+      </c>
+      <c r="H206">
+        <v>5</v>
+      </c>
+      <c r="J206">
+        <v>31</v>
+      </c>
+      <c r="K206">
+        <v>10</v>
+      </c>
+      <c r="L206">
+        <v>38</v>
+      </c>
+      <c r="M206">
+        <v>5</v>
+      </c>
+      <c r="O206">
+        <v>37</v>
+      </c>
+      <c r="P206">
+        <v>5</v>
+      </c>
+      <c r="Q206">
+        <v>63</v>
+      </c>
+      <c r="R206">
+        <v>5</v>
+      </c>
+      <c r="T206">
+        <v>31</v>
+      </c>
+      <c r="U206">
+        <v>10</v>
+      </c>
+      <c r="V206">
+        <v>63</v>
+      </c>
+      <c r="W206">
+        <v>5</v>
+      </c>
+      <c r="Y206">
+        <v>64</v>
+      </c>
+      <c r="Z206">
+        <v>5</v>
+      </c>
+      <c r="AA206">
+        <v>63</v>
+      </c>
+      <c r="AB206">
+        <v>5</v>
+      </c>
+      <c r="AD206">
+        <v>64</v>
+      </c>
+      <c r="AE206">
+        <v>5</v>
+      </c>
+      <c r="AF206">
+        <v>38</v>
+      </c>
+      <c r="AG206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:33">
+      <c r="A207">
+        <v>16</v>
+      </c>
+      <c r="B207" s="9">
+        <v>31200</v>
+      </c>
+      <c r="C207" s="9">
+        <v>31200</v>
+      </c>
+      <c r="E207">
+        <v>37</v>
+      </c>
+      <c r="F207">
+        <v>5</v>
+      </c>
+      <c r="G207">
+        <v>38</v>
+      </c>
+      <c r="H207">
+        <v>5</v>
+      </c>
+      <c r="J207">
+        <v>31</v>
+      </c>
+      <c r="K207">
+        <v>10</v>
+      </c>
+      <c r="L207">
+        <v>38</v>
+      </c>
+      <c r="M207">
+        <v>5</v>
+      </c>
+      <c r="O207">
+        <v>37</v>
+      </c>
+      <c r="P207">
+        <v>5</v>
+      </c>
+      <c r="Q207">
+        <v>63</v>
+      </c>
+      <c r="R207">
+        <v>5</v>
+      </c>
+      <c r="T207">
+        <v>31</v>
+      </c>
+      <c r="U207">
+        <v>10</v>
+      </c>
+      <c r="V207">
+        <v>63</v>
+      </c>
+      <c r="W207">
+        <v>5</v>
+      </c>
+      <c r="Y207">
+        <v>64</v>
+      </c>
+      <c r="Z207">
+        <v>5</v>
+      </c>
+      <c r="AA207">
+        <v>63</v>
+      </c>
+      <c r="AB207">
+        <v>5</v>
+      </c>
+      <c r="AD207">
+        <v>64</v>
+      </c>
+      <c r="AE207">
+        <v>5</v>
+      </c>
+      <c r="AF207">
+        <v>38</v>
+      </c>
+      <c r="AG207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:33">
+      <c r="A208">
+        <v>16</v>
+      </c>
+      <c r="B208" s="9">
+        <v>31100</v>
+      </c>
+      <c r="C208" s="9">
+        <v>31100</v>
+      </c>
+      <c r="E208">
+        <v>37</v>
+      </c>
+      <c r="F208">
+        <v>5</v>
+      </c>
+      <c r="G208">
+        <v>38</v>
+      </c>
+      <c r="H208">
+        <v>5</v>
+      </c>
+      <c r="J208">
+        <v>31</v>
+      </c>
+      <c r="K208">
+        <v>10</v>
+      </c>
+      <c r="L208">
+        <v>38</v>
+      </c>
+      <c r="M208">
+        <v>5</v>
+      </c>
+      <c r="O208">
+        <v>37</v>
+      </c>
+      <c r="P208">
+        <v>5</v>
+      </c>
+      <c r="Q208">
+        <v>63</v>
+      </c>
+      <c r="R208">
+        <v>5</v>
+      </c>
+      <c r="T208">
+        <v>31</v>
+      </c>
+      <c r="U208">
+        <v>10</v>
+      </c>
+      <c r="V208">
+        <v>63</v>
+      </c>
+      <c r="W208">
+        <v>5</v>
+      </c>
+      <c r="Y208">
+        <v>64</v>
+      </c>
+      <c r="Z208">
+        <v>5</v>
+      </c>
+      <c r="AA208">
+        <v>63</v>
+      </c>
+      <c r="AB208">
+        <v>5</v>
+      </c>
+      <c r="AD208">
+        <v>64</v>
+      </c>
+      <c r="AE208">
+        <v>5</v>
+      </c>
+      <c r="AF208">
+        <v>38</v>
+      </c>
+      <c r="AG208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33">
+      <c r="A209">
+        <v>16</v>
+      </c>
+      <c r="B209" s="9">
+        <v>31000</v>
+      </c>
+      <c r="C209" s="9">
+        <v>31000</v>
+      </c>
+      <c r="E209">
+        <v>37</v>
+      </c>
+      <c r="F209">
+        <v>5</v>
+      </c>
+      <c r="G209">
+        <v>38</v>
+      </c>
+      <c r="H209">
+        <v>5</v>
+      </c>
+      <c r="J209">
+        <v>31</v>
+      </c>
+      <c r="K209">
+        <v>10</v>
+      </c>
+      <c r="L209">
+        <v>38</v>
+      </c>
+      <c r="M209">
+        <v>5</v>
+      </c>
+      <c r="O209">
+        <v>37</v>
+      </c>
+      <c r="P209">
+        <v>5</v>
+      </c>
+      <c r="Q209">
+        <v>63</v>
+      </c>
+      <c r="R209">
+        <v>5</v>
+      </c>
+      <c r="T209">
+        <v>31</v>
+      </c>
+      <c r="U209">
+        <v>10</v>
+      </c>
+      <c r="V209">
+        <v>63</v>
+      </c>
+      <c r="W209">
+        <v>5</v>
+      </c>
+      <c r="Y209">
+        <v>64</v>
+      </c>
+      <c r="Z209">
+        <v>5</v>
+      </c>
+      <c r="AA209">
+        <v>63</v>
+      </c>
+      <c r="AB209">
+        <v>5</v>
+      </c>
+      <c r="AD209">
+        <v>64</v>
+      </c>
+      <c r="AE209">
+        <v>5</v>
+      </c>
+      <c r="AF209">
+        <v>38</v>
+      </c>
+      <c r="AG209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33">
+      <c r="A210">
+        <v>16</v>
+      </c>
+      <c r="B210" s="9">
+        <v>31300</v>
+      </c>
+      <c r="C210" s="9">
+        <v>31300</v>
+      </c>
+      <c r="E210">
+        <v>37</v>
+      </c>
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="G210">
+        <v>38</v>
+      </c>
+      <c r="H210">
+        <v>5</v>
+      </c>
+      <c r="J210">
+        <v>31</v>
+      </c>
+      <c r="K210">
+        <v>10</v>
+      </c>
+      <c r="L210">
+        <v>38</v>
+      </c>
+      <c r="M210">
+        <v>5</v>
+      </c>
+      <c r="O210">
+        <v>37</v>
+      </c>
+      <c r="P210">
+        <v>5</v>
+      </c>
+      <c r="Q210">
+        <v>63</v>
+      </c>
+      <c r="R210">
+        <v>5</v>
+      </c>
+      <c r="T210">
+        <v>31</v>
+      </c>
+      <c r="U210">
+        <v>10</v>
+      </c>
+      <c r="V210">
+        <v>63</v>
+      </c>
+      <c r="W210">
+        <v>5</v>
+      </c>
+      <c r="Y210">
+        <v>64</v>
+      </c>
+      <c r="Z210">
+        <v>5</v>
+      </c>
+      <c r="AA210">
+        <v>63</v>
+      </c>
+      <c r="AB210">
+        <v>5</v>
+      </c>
+      <c r="AD210">
+        <v>64</v>
+      </c>
+      <c r="AE210">
+        <v>5</v>
+      </c>
+      <c r="AF210">
+        <v>38</v>
+      </c>
+      <c r="AG210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33">
+      <c r="A211">
+        <v>16</v>
+      </c>
+      <c r="B211" s="9">
+        <v>31400</v>
+      </c>
+      <c r="C211" s="9">
+        <v>31400</v>
+      </c>
+      <c r="E211">
+        <v>37</v>
+      </c>
+      <c r="F211">
+        <v>5</v>
+      </c>
+      <c r="G211">
+        <v>38</v>
+      </c>
+      <c r="H211">
+        <v>5</v>
+      </c>
+      <c r="J211">
+        <v>31</v>
+      </c>
+      <c r="K211">
+        <v>10</v>
+      </c>
+      <c r="L211">
+        <v>38</v>
+      </c>
+      <c r="M211">
+        <v>5</v>
+      </c>
+      <c r="O211">
+        <v>37</v>
+      </c>
+      <c r="P211">
+        <v>5</v>
+      </c>
+      <c r="Q211">
+        <v>63</v>
+      </c>
+      <c r="R211">
+        <v>5</v>
+      </c>
+      <c r="T211">
+        <v>31</v>
+      </c>
+      <c r="U211">
+        <v>10</v>
+      </c>
+      <c r="V211">
+        <v>63</v>
+      </c>
+      <c r="W211">
+        <v>5</v>
+      </c>
+      <c r="Y211">
+        <v>64</v>
+      </c>
+      <c r="Z211">
+        <v>5</v>
+      </c>
+      <c r="AA211">
+        <v>63</v>
+      </c>
+      <c r="AB211">
+        <v>5</v>
+      </c>
+      <c r="AD211">
+        <v>64</v>
+      </c>
+      <c r="AE211">
+        <v>5</v>
+      </c>
+      <c r="AF211">
+        <v>38</v>
+      </c>
+      <c r="AG211">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/props_config_tool/Props_config.xlsx
+++ b/props_config_tool/Props_config.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/props_config_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D273C-5FA6-7341-ADB5-06E90B227D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13108753-5F90-3145-BEB8-3A9AC978DACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
+    <workbookView xWindow="400" yWindow="-19840" windowWidth="33760" windowHeight="18820" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="other" sheetId="1" r:id="rId2"/>
+    <sheet name="整理" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="other" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="23">
   <si>
     <t>course_id</t>
   </si>
@@ -87,6 +89,24 @@
   <si>
     <t>第11组</t>
   </si>
+  <si>
+    <t>tour</t>
+  </si>
+  <si>
+    <t>club_id</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>第一杆</t>
+  </si>
+  <si>
+    <t>第二杆</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +126,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +163,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -171,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -197,6 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,14 +537,5979 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7563B02-A9AE-CF49-B160-912A556C695D}">
+  <dimension ref="A1:AA210"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="4" max="6" width="10.7109375" style="2"/>
+    <col min="7" max="9" width="10.7109375" style="15"/>
+    <col min="10" max="12" width="10.7109375" style="2"/>
+    <col min="13" max="15" width="10.7109375" style="15"/>
+    <col min="16" max="18" width="10.7109375" style="2"/>
+    <col min="19" max="21" width="10.7109375" style="15"/>
+    <col min="22" max="24" width="10.7109375" style="2"/>
+    <col min="25" max="27" width="10.7109375" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>6300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100700</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>6300</v>
+      </c>
+      <c r="D5" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>100700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>101300</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="15">
+        <v>28</v>
+      </c>
+      <c r="H8" s="15">
+        <v>3</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>6400</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>9600</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="15">
+        <v>8</v>
+      </c>
+      <c r="H11" s="15">
+        <v>2</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>101300</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="15">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15">
+        <v>3</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>6400</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>9600</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="15">
+        <v>8</v>
+      </c>
+      <c r="H15" s="15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>6600</v>
+      </c>
+      <c r="D16" s="2">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>101700</v>
+      </c>
+      <c r="D17" s="2">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>102600</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>9700</v>
+      </c>
+      <c r="D19" s="2">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="15">
+        <v>8</v>
+      </c>
+      <c r="H19" s="15">
+        <v>3</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>6600</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>101700</v>
+      </c>
+      <c r="D21" s="2">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>102600</v>
+      </c>
+      <c r="D22" s="2">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>9700</v>
+      </c>
+      <c r="D23" s="2">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="15">
+        <v>8</v>
+      </c>
+      <c r="H23" s="15">
+        <v>3</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>103400</v>
+      </c>
+      <c r="D24" s="2">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="15">
+        <v>26</v>
+      </c>
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>103500</v>
+      </c>
+      <c r="D25" s="2">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>104400</v>
+      </c>
+      <c r="D26" s="2">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>6700</v>
+      </c>
+      <c r="D27" s="2">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="15">
+        <v>13</v>
+      </c>
+      <c r="H27" s="15">
+        <v>3</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>9800</v>
+      </c>
+      <c r="D28" s="2">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>16900</v>
+      </c>
+      <c r="D29" s="2">
+        <v>19</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="15">
+        <v>26</v>
+      </c>
+      <c r="H29" s="15">
+        <v>2</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>17000</v>
+      </c>
+      <c r="D30" s="2">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="15">
+        <v>26</v>
+      </c>
+      <c r="H30" s="15">
+        <v>3</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>17100</v>
+      </c>
+      <c r="D31" s="2">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="15">
+        <v>26</v>
+      </c>
+      <c r="H31" s="15">
+        <v>2</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>17400</v>
+      </c>
+      <c r="D32" s="2">
+        <v>19</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="15">
+        <v>13</v>
+      </c>
+      <c r="H32" s="15">
+        <v>3</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="2">
+        <v>26</v>
+      </c>
+      <c r="K32" s="2">
+        <v>3</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>103400</v>
+      </c>
+      <c r="D33" s="2">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="15">
+        <v>26</v>
+      </c>
+      <c r="H33" s="15">
+        <v>3</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>103500</v>
+      </c>
+      <c r="D34" s="2">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>104400</v>
+      </c>
+      <c r="D35" s="2">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>6700</v>
+      </c>
+      <c r="D36" s="2">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="15">
+        <v>13</v>
+      </c>
+      <c r="H36" s="15">
+        <v>3</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="2">
+        <v>26</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>9800</v>
+      </c>
+      <c r="D37" s="2">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>16900</v>
+      </c>
+      <c r="D38" s="2">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="15">
+        <v>26</v>
+      </c>
+      <c r="H38" s="15">
+        <v>2</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>17000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="15">
+        <v>26</v>
+      </c>
+      <c r="H39" s="15">
+        <v>3</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>17100</v>
+      </c>
+      <c r="D40" s="2">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="15">
+        <v>26</v>
+      </c>
+      <c r="H40" s="15">
+        <v>2</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>17400</v>
+      </c>
+      <c r="D41" s="2">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="15">
+        <v>13</v>
+      </c>
+      <c r="H41" s="15">
+        <v>3</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="2">
+        <v>26</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>101600</v>
+      </c>
+      <c r="D42" s="2">
+        <v>49</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="15">
+        <v>26</v>
+      </c>
+      <c r="H42" s="15">
+        <v>3</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="2">
+        <v>26</v>
+      </c>
+      <c r="K42" s="2">
+        <v>2</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>104600</v>
+      </c>
+      <c r="D43" s="2">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>204800</v>
+      </c>
+      <c r="D44" s="2">
+        <v>19</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="15">
+        <v>49</v>
+      </c>
+      <c r="H44" s="15">
+        <v>3</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>9900</v>
+      </c>
+      <c r="D45" s="2">
+        <v>49</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="15">
+        <v>19</v>
+      </c>
+      <c r="H45" s="15">
+        <v>7</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="2">
+        <v>26</v>
+      </c>
+      <c r="K45" s="2">
+        <v>4</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>101600</v>
+      </c>
+      <c r="D46" s="2">
+        <v>49</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="15">
+        <v>26</v>
+      </c>
+      <c r="H46" s="15">
+        <v>3</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="2">
+        <v>26</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>104600</v>
+      </c>
+      <c r="D47" s="2">
+        <v>19</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>204800</v>
+      </c>
+      <c r="D48" s="2">
+        <v>19</v>
+      </c>
+      <c r="E48" s="2">
+        <v>6</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="15">
+        <v>49</v>
+      </c>
+      <c r="H48" s="15">
+        <v>3</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>9900</v>
+      </c>
+      <c r="D49" s="2">
+        <v>49</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="15">
+        <v>19</v>
+      </c>
+      <c r="H49" s="15">
+        <v>7</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="2">
+        <v>26</v>
+      </c>
+      <c r="K49" s="2">
+        <v>4</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>100800</v>
+      </c>
+      <c r="D50" s="2">
+        <v>26</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="15">
+        <v>49</v>
+      </c>
+      <c r="H50" s="15">
+        <v>5</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="2">
+        <v>50</v>
+      </c>
+      <c r="K50" s="2">
+        <v>4</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>1200</v>
+      </c>
+      <c r="D51" s="2">
+        <v>49</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="15">
+        <v>26</v>
+      </c>
+      <c r="H51" s="15">
+        <v>5</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>4500</v>
+      </c>
+      <c r="D52" s="2">
+        <v>49</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="15">
+        <v>26</v>
+      </c>
+      <c r="H52" s="15">
+        <v>4</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>104700</v>
+      </c>
+      <c r="D53" s="2">
+        <v>49</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="15">
+        <v>19</v>
+      </c>
+      <c r="H53" s="15">
+        <v>7</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="2">
+        <v>26</v>
+      </c>
+      <c r="K53" s="2">
+        <v>5</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>104900</v>
+      </c>
+      <c r="D54" s="2">
+        <v>19</v>
+      </c>
+      <c r="E54" s="2">
+        <v>6</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="15">
+        <v>50</v>
+      </c>
+      <c r="H54" s="15">
+        <v>2</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>49</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="15">
+        <v>19</v>
+      </c>
+      <c r="H55" s="15">
+        <v>7</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="2">
+        <v>50</v>
+      </c>
+      <c r="K55" s="2">
+        <v>3</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>100800</v>
+      </c>
+      <c r="D56" s="2">
+        <v>26</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="15">
+        <v>49</v>
+      </c>
+      <c r="H56" s="15">
+        <v>5</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="2">
+        <v>50</v>
+      </c>
+      <c r="K56" s="2">
+        <v>4</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>1200</v>
+      </c>
+      <c r="D57" s="2">
+        <v>49</v>
+      </c>
+      <c r="E57" s="2">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="15">
+        <v>26</v>
+      </c>
+      <c r="H57" s="15">
+        <v>5</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>4500</v>
+      </c>
+      <c r="D58" s="2">
+        <v>49</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="15">
+        <v>26</v>
+      </c>
+      <c r="H58" s="15">
+        <v>4</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>104700</v>
+      </c>
+      <c r="D59" s="2">
+        <v>49</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="15">
+        <v>19</v>
+      </c>
+      <c r="H59" s="15">
+        <v>7</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="2">
+        <v>26</v>
+      </c>
+      <c r="K59" s="2">
+        <v>5</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>104900</v>
+      </c>
+      <c r="D60" s="2">
+        <v>19</v>
+      </c>
+      <c r="E60" s="2">
+        <v>6</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="15">
+        <v>50</v>
+      </c>
+      <c r="H60" s="15">
+        <v>2</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>10000</v>
+      </c>
+      <c r="D61" s="2">
+        <v>49</v>
+      </c>
+      <c r="E61" s="2">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="15">
+        <v>19</v>
+      </c>
+      <c r="H61" s="15">
+        <v>7</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="2">
+        <v>50</v>
+      </c>
+      <c r="K61" s="2">
+        <v>3</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>1100</v>
+      </c>
+      <c r="D62" s="2">
+        <v>33</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>102100</v>
+      </c>
+      <c r="D63" s="2">
+        <v>31</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>3900</v>
+      </c>
+      <c r="D64" s="2">
+        <v>31</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>5000</v>
+      </c>
+      <c r="D65" s="2">
+        <v>19</v>
+      </c>
+      <c r="E65" s="2">
+        <v>7</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>4300</v>
+      </c>
+      <c r="D66" s="2">
+        <v>31</v>
+      </c>
+      <c r="E66" s="2">
+        <v>5</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="15">
+        <v>26</v>
+      </c>
+      <c r="H66" s="15">
+        <v>2</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>105200</v>
+      </c>
+      <c r="D67" s="2">
+        <v>31</v>
+      </c>
+      <c r="E67" s="2">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>1100</v>
+      </c>
+      <c r="D68" s="2">
+        <v>33</v>
+      </c>
+      <c r="E68" s="2">
+        <v>5</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>102100</v>
+      </c>
+      <c r="D69" s="2">
+        <v>31</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>3900</v>
+      </c>
+      <c r="D70" s="2">
+        <v>31</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>5000</v>
+      </c>
+      <c r="D71" s="2">
+        <v>19</v>
+      </c>
+      <c r="E71" s="2">
+        <v>7</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>4300</v>
+      </c>
+      <c r="D72" s="2">
+        <v>31</v>
+      </c>
+      <c r="E72" s="2">
+        <v>5</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="15">
+        <v>26</v>
+      </c>
+      <c r="H72" s="15">
+        <v>2</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>105200</v>
+      </c>
+      <c r="D73" s="2">
+        <v>31</v>
+      </c>
+      <c r="E73" s="2">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>2200</v>
+      </c>
+      <c r="D74" s="2">
+        <v>32</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>3800</v>
+      </c>
+      <c r="D75" s="2">
+        <v>31</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="15">
+        <v>32</v>
+      </c>
+      <c r="H75" s="15">
+        <v>3</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>4100</v>
+      </c>
+      <c r="D76" s="2">
+        <v>31</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="15">
+        <v>32</v>
+      </c>
+      <c r="H76" s="15">
+        <v>5</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>4200</v>
+      </c>
+      <c r="D77" s="2">
+        <v>32</v>
+      </c>
+      <c r="E77" s="2">
+        <v>4</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>5100</v>
+      </c>
+      <c r="D78" s="2">
+        <v>32</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>2200</v>
+      </c>
+      <c r="D79" s="2">
+        <v>32</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>3800</v>
+      </c>
+      <c r="D80" s="2">
+        <v>31</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="15">
+        <v>32</v>
+      </c>
+      <c r="H80" s="15">
+        <v>3</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>4100</v>
+      </c>
+      <c r="D81" s="2">
+        <v>31</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="15">
+        <v>32</v>
+      </c>
+      <c r="H81" s="15">
+        <v>5</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>4200</v>
+      </c>
+      <c r="D82" s="2">
+        <v>32</v>
+      </c>
+      <c r="E82" s="2">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>5100</v>
+      </c>
+      <c r="D83" s="2">
+        <v>32</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>5300</v>
+      </c>
+      <c r="D84" s="2">
+        <v>31</v>
+      </c>
+      <c r="E84" s="2">
+        <v>5</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>105400</v>
+      </c>
+      <c r="D85" s="2">
+        <v>19</v>
+      </c>
+      <c r="E85" s="2">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>5500</v>
+      </c>
+      <c r="D86" s="2">
+        <v>19</v>
+      </c>
+      <c r="E86" s="2">
+        <v>7</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>5600</v>
+      </c>
+      <c r="D87" s="2">
+        <v>32</v>
+      </c>
+      <c r="E87" s="2">
+        <v>5</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>5800</v>
+      </c>
+      <c r="D88" s="2">
+        <v>19</v>
+      </c>
+      <c r="E88" s="2">
+        <v>8</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="15">
+        <v>33</v>
+      </c>
+      <c r="H88" s="15">
+        <v>5</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="B89">
+        <v>6000</v>
+      </c>
+      <c r="D89" s="2">
+        <v>31</v>
+      </c>
+      <c r="E89" s="2">
+        <v>4</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="15">
+        <v>32</v>
+      </c>
+      <c r="H89" s="15">
+        <v>8</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>6100</v>
+      </c>
+      <c r="D90" s="2">
+        <v>31</v>
+      </c>
+      <c r="E90" s="2">
+        <v>6</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="15">
+        <v>32</v>
+      </c>
+      <c r="H90" s="15">
+        <v>5</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>5300</v>
+      </c>
+      <c r="D91" s="2">
+        <v>31</v>
+      </c>
+      <c r="E91" s="2">
+        <v>5</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>105400</v>
+      </c>
+      <c r="D92" s="2">
+        <v>19</v>
+      </c>
+      <c r="E92" s="2">
+        <v>8</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>5500</v>
+      </c>
+      <c r="D93" s="2">
+        <v>19</v>
+      </c>
+      <c r="E93" s="2">
+        <v>7</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>10</v>
+      </c>
+      <c r="B94">
+        <v>5600</v>
+      </c>
+      <c r="D94" s="2">
+        <v>32</v>
+      </c>
+      <c r="E94" s="2">
+        <v>5</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>5800</v>
+      </c>
+      <c r="D95" s="2">
+        <v>19</v>
+      </c>
+      <c r="E95" s="2">
+        <v>8</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="15">
+        <v>33</v>
+      </c>
+      <c r="H95" s="15">
+        <v>5</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>6000</v>
+      </c>
+      <c r="D96" s="2">
+        <v>31</v>
+      </c>
+      <c r="E96" s="2">
+        <v>4</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="15">
+        <v>32</v>
+      </c>
+      <c r="H96" s="15">
+        <v>8</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>10</v>
+      </c>
+      <c r="B97">
+        <v>6100</v>
+      </c>
+      <c r="D97" s="2">
+        <v>31</v>
+      </c>
+      <c r="E97" s="2">
+        <v>6</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="15">
+        <v>32</v>
+      </c>
+      <c r="H97" s="15">
+        <v>5</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>11</v>
+      </c>
+      <c r="B98">
+        <v>107400</v>
+      </c>
+      <c r="D98" s="2">
+        <v>31</v>
+      </c>
+      <c r="E98" s="2">
+        <v>9</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>11</v>
+      </c>
+      <c r="B99">
+        <v>7500</v>
+      </c>
+      <c r="D99" s="2">
+        <v>31</v>
+      </c>
+      <c r="E99" s="2">
+        <v>6</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>7600</v>
+      </c>
+      <c r="D100" s="2">
+        <v>31</v>
+      </c>
+      <c r="E100" s="2">
+        <v>7</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>11</v>
+      </c>
+      <c r="B101">
+        <v>7700</v>
+      </c>
+      <c r="D101" s="2">
+        <v>19</v>
+      </c>
+      <c r="E101" s="2">
+        <v>9</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="15">
+        <v>33</v>
+      </c>
+      <c r="H101" s="15">
+        <v>5</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>11</v>
+      </c>
+      <c r="B102">
+        <v>7800</v>
+      </c>
+      <c r="D102" s="2">
+        <v>19</v>
+      </c>
+      <c r="E102" s="2">
+        <v>10</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>11</v>
+      </c>
+      <c r="B103">
+        <v>107900</v>
+      </c>
+      <c r="D103" s="2">
+        <v>32</v>
+      </c>
+      <c r="E103" s="2">
+        <v>6</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>11</v>
+      </c>
+      <c r="B104">
+        <v>8000</v>
+      </c>
+      <c r="D104" s="2">
+        <v>32</v>
+      </c>
+      <c r="E104" s="2">
+        <v>7</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>11</v>
+      </c>
+      <c r="B105">
+        <v>108400</v>
+      </c>
+      <c r="D105" s="2">
+        <v>31</v>
+      </c>
+      <c r="E105" s="2">
+        <v>9</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="15">
+        <v>27</v>
+      </c>
+      <c r="H105" s="15">
+        <v>5</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>11</v>
+      </c>
+      <c r="B106">
+        <v>107400</v>
+      </c>
+      <c r="D106" s="2">
+        <v>31</v>
+      </c>
+      <c r="E106" s="2">
+        <v>9</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>11</v>
+      </c>
+      <c r="B107">
+        <v>7500</v>
+      </c>
+      <c r="D107" s="2">
+        <v>31</v>
+      </c>
+      <c r="E107" s="2">
+        <v>6</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>7600</v>
+      </c>
+      <c r="D108" s="2">
+        <v>31</v>
+      </c>
+      <c r="E108" s="2">
+        <v>7</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>11</v>
+      </c>
+      <c r="B109">
+        <v>7700</v>
+      </c>
+      <c r="D109" s="2">
+        <v>19</v>
+      </c>
+      <c r="E109" s="2">
+        <v>9</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="15">
+        <v>33</v>
+      </c>
+      <c r="H109" s="15">
+        <v>5</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>11</v>
+      </c>
+      <c r="B110">
+        <v>7800</v>
+      </c>
+      <c r="D110" s="2">
+        <v>19</v>
+      </c>
+      <c r="E110" s="2">
+        <v>10</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>11</v>
+      </c>
+      <c r="B111">
+        <v>107900</v>
+      </c>
+      <c r="D111" s="2">
+        <v>32</v>
+      </c>
+      <c r="E111" s="2">
+        <v>6</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <v>8000</v>
+      </c>
+      <c r="D112" s="2">
+        <v>32</v>
+      </c>
+      <c r="E112" s="2">
+        <v>7</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
+      <c r="A113">
+        <v>11</v>
+      </c>
+      <c r="B113">
+        <v>108400</v>
+      </c>
+      <c r="D113" s="2">
+        <v>31</v>
+      </c>
+      <c r="E113" s="2">
+        <v>9</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="15">
+        <v>27</v>
+      </c>
+      <c r="H113" s="15">
+        <v>5</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
+      <c r="A114">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>18700</v>
+      </c>
+      <c r="D114" s="2">
+        <v>31</v>
+      </c>
+      <c r="E114" s="2">
+        <v>7</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" s="15">
+        <v>19</v>
+      </c>
+      <c r="H114" s="15">
+        <v>10</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114" s="2">
+        <v>37</v>
+      </c>
+      <c r="K114" s="2">
+        <v>3</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M114" s="15">
+        <v>26</v>
+      </c>
+      <c r="N114" s="15">
+        <v>8</v>
+      </c>
+      <c r="O114" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
+      <c r="A115">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>18800</v>
+      </c>
+      <c r="D115" s="2">
+        <v>19</v>
+      </c>
+      <c r="E115" s="2">
+        <v>10</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="15">
+        <v>31</v>
+      </c>
+      <c r="H115" s="15">
+        <v>7</v>
+      </c>
+      <c r="I115" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" s="2">
+        <v>32</v>
+      </c>
+      <c r="K115" s="2">
+        <v>5</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M115" s="15">
+        <v>26</v>
+      </c>
+      <c r="N115" s="15">
+        <v>5</v>
+      </c>
+      <c r="O115" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
+      <c r="A116">
+        <v>12</v>
+      </c>
+      <c r="B116">
+        <v>18900</v>
+      </c>
+      <c r="D116" s="2">
+        <v>31</v>
+      </c>
+      <c r="E116" s="2">
+        <v>7</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" s="15">
+        <v>32</v>
+      </c>
+      <c r="H116" s="15">
+        <v>7</v>
+      </c>
+      <c r="I116" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="2">
+        <v>26</v>
+      </c>
+      <c r="K116" s="2">
+        <v>8</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
+      <c r="A117">
+        <v>12</v>
+      </c>
+      <c r="B117">
+        <v>19000</v>
+      </c>
+      <c r="D117" s="2">
+        <v>31</v>
+      </c>
+      <c r="E117" s="2">
+        <v>7</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" s="15">
+        <v>38</v>
+      </c>
+      <c r="H117" s="15">
+        <v>3</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="2">
+        <v>26</v>
+      </c>
+      <c r="K117" s="2">
+        <v>8</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
+      <c r="A118">
+        <v>12</v>
+      </c>
+      <c r="B118">
+        <v>19100</v>
+      </c>
+      <c r="D118" s="2">
+        <v>31</v>
+      </c>
+      <c r="E118" s="2">
+        <v>7</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" s="15">
+        <v>55</v>
+      </c>
+      <c r="H118" s="15">
+        <v>4</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" s="2">
+        <v>38</v>
+      </c>
+      <c r="K118" s="2">
+        <v>3</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M118" s="15">
+        <v>32</v>
+      </c>
+      <c r="N118" s="15">
+        <v>8</v>
+      </c>
+      <c r="O118" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P118" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>8</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
+      <c r="A119">
+        <v>12</v>
+      </c>
+      <c r="B119">
+        <v>19200</v>
+      </c>
+      <c r="D119" s="2">
+        <v>55</v>
+      </c>
+      <c r="E119" s="2">
+        <v>4</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="15">
+        <v>37</v>
+      </c>
+      <c r="H119" s="15">
+        <v>3</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
+      <c r="A120">
+        <v>12</v>
+      </c>
+      <c r="B120">
+        <v>19300</v>
+      </c>
+      <c r="D120" s="2">
+        <v>31</v>
+      </c>
+      <c r="E120" s="2">
+        <v>7</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="15">
+        <v>19</v>
+      </c>
+      <c r="H120" s="15">
+        <v>10</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J120" s="2">
+        <v>37</v>
+      </c>
+      <c r="K120" s="2">
+        <v>3</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M120" s="15">
+        <v>26</v>
+      </c>
+      <c r="N120" s="15">
+        <v>8</v>
+      </c>
+      <c r="O120" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P120" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>8</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S120" s="15">
+        <v>38</v>
+      </c>
+      <c r="T120" s="15">
+        <v>3</v>
+      </c>
+      <c r="U120" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
+      <c r="A121">
+        <v>12</v>
+      </c>
+      <c r="B121">
+        <v>19400</v>
+      </c>
+      <c r="D121" s="2">
+        <v>37</v>
+      </c>
+      <c r="E121" s="2">
+        <v>3</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" s="15">
+        <v>19</v>
+      </c>
+      <c r="H121" s="15">
+        <v>10</v>
+      </c>
+      <c r="I121" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
+      <c r="A122">
+        <v>12</v>
+      </c>
+      <c r="B122">
+        <v>19500</v>
+      </c>
+      <c r="D122" s="2">
+        <v>55</v>
+      </c>
+      <c r="E122" s="2">
+        <v>5</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="15">
+        <v>31</v>
+      </c>
+      <c r="H122" s="15">
+        <v>7</v>
+      </c>
+      <c r="I122" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122" s="2">
+        <v>37</v>
+      </c>
+      <c r="K122" s="2">
+        <v>5</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123">
+        <v>12</v>
+      </c>
+      <c r="B123">
+        <v>19600</v>
+      </c>
+      <c r="D123" s="2">
+        <v>37</v>
+      </c>
+      <c r="E123" s="2">
+        <v>3</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" s="15">
+        <v>19</v>
+      </c>
+      <c r="H123" s="15">
+        <v>10</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J123" s="2">
+        <v>32</v>
+      </c>
+      <c r="K123" s="2">
+        <v>8</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M123" s="15">
+        <v>63</v>
+      </c>
+      <c r="N123" s="15">
+        <v>3</v>
+      </c>
+      <c r="O123" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124">
+        <v>12</v>
+      </c>
+      <c r="B124">
+        <v>19700</v>
+      </c>
+      <c r="D124" s="2">
+        <v>37</v>
+      </c>
+      <c r="E124" s="2">
+        <v>3</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" s="15">
+        <v>19</v>
+      </c>
+      <c r="H124" s="15">
+        <v>10</v>
+      </c>
+      <c r="I124" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125">
+        <v>12</v>
+      </c>
+      <c r="B125">
+        <v>8800</v>
+      </c>
+      <c r="D125" s="2">
+        <v>31</v>
+      </c>
+      <c r="E125" s="2">
+        <v>8</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" s="15">
+        <v>32</v>
+      </c>
+      <c r="H125" s="15">
+        <v>7</v>
+      </c>
+      <c r="I125" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126">
+        <v>12</v>
+      </c>
+      <c r="B126">
+        <v>8900</v>
+      </c>
+      <c r="D126" s="2">
+        <v>19</v>
+      </c>
+      <c r="E126" s="2">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G126" s="15">
+        <v>32</v>
+      </c>
+      <c r="H126" s="15">
+        <v>9</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127">
+        <v>12</v>
+      </c>
+      <c r="B127">
+        <v>9000</v>
+      </c>
+      <c r="D127" s="2">
+        <v>55</v>
+      </c>
+      <c r="E127" s="2">
+        <v>5</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128">
+        <v>12</v>
+      </c>
+      <c r="B128">
+        <v>9100</v>
+      </c>
+      <c r="D128" s="2">
+        <v>55</v>
+      </c>
+      <c r="E128" s="2">
+        <v>3</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" s="15">
+        <v>26</v>
+      </c>
+      <c r="H128" s="15">
+        <v>8</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>12</v>
+      </c>
+      <c r="B129">
+        <v>9200</v>
+      </c>
+      <c r="D129" s="2">
+        <v>55</v>
+      </c>
+      <c r="E129" s="2">
+        <v>4</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" s="15">
+        <v>26</v>
+      </c>
+      <c r="H129" s="15">
+        <v>9</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="2">
+        <v>32</v>
+      </c>
+      <c r="K129" s="2">
+        <v>9</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>12</v>
+      </c>
+      <c r="B130">
+        <v>9300</v>
+      </c>
+      <c r="D130" s="2">
+        <v>55</v>
+      </c>
+      <c r="E130" s="2">
+        <v>4</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>12</v>
+      </c>
+      <c r="B131">
+        <v>9400</v>
+      </c>
+      <c r="D131" s="2">
+        <v>31</v>
+      </c>
+      <c r="E131" s="2">
+        <v>9</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" s="15">
+        <v>27</v>
+      </c>
+      <c r="H131" s="15">
+        <v>6</v>
+      </c>
+      <c r="I131" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>12</v>
+      </c>
+      <c r="B132">
+        <v>9500</v>
+      </c>
+      <c r="D132" s="2">
+        <v>31</v>
+      </c>
+      <c r="E132" s="2">
+        <v>7</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>12</v>
+      </c>
+      <c r="B133">
+        <v>8800</v>
+      </c>
+      <c r="D133" s="2">
+        <v>31</v>
+      </c>
+      <c r="E133" s="2">
+        <v>8</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" s="15">
+        <v>32</v>
+      </c>
+      <c r="H133" s="15">
+        <v>7</v>
+      </c>
+      <c r="I133" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>12</v>
+      </c>
+      <c r="B134">
+        <v>8900</v>
+      </c>
+      <c r="D134" s="2">
+        <v>19</v>
+      </c>
+      <c r="E134" s="2">
+        <v>11</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="15">
+        <v>32</v>
+      </c>
+      <c r="H134" s="15">
+        <v>9</v>
+      </c>
+      <c r="I134" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>12</v>
+      </c>
+      <c r="B135">
+        <v>9000</v>
+      </c>
+      <c r="D135" s="2">
+        <v>55</v>
+      </c>
+      <c r="E135" s="2">
+        <v>5</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>12</v>
+      </c>
+      <c r="B136">
+        <v>9100</v>
+      </c>
+      <c r="D136" s="2">
+        <v>55</v>
+      </c>
+      <c r="E136" s="2">
+        <v>3</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" s="15">
+        <v>26</v>
+      </c>
+      <c r="H136" s="15">
+        <v>8</v>
+      </c>
+      <c r="I136" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>12</v>
+      </c>
+      <c r="B137">
+        <v>9200</v>
+      </c>
+      <c r="D137" s="2">
+        <v>55</v>
+      </c>
+      <c r="E137" s="2">
+        <v>4</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" s="15">
+        <v>26</v>
+      </c>
+      <c r="H137" s="15">
+        <v>9</v>
+      </c>
+      <c r="I137" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" s="2">
+        <v>32</v>
+      </c>
+      <c r="K137" s="2">
+        <v>9</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>12</v>
+      </c>
+      <c r="B138">
+        <v>9300</v>
+      </c>
+      <c r="D138" s="2">
+        <v>55</v>
+      </c>
+      <c r="E138" s="2">
+        <v>4</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>12</v>
+      </c>
+      <c r="B139">
+        <v>9400</v>
+      </c>
+      <c r="D139" s="2">
+        <v>31</v>
+      </c>
+      <c r="E139" s="2">
+        <v>9</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" s="15">
+        <v>27</v>
+      </c>
+      <c r="H139" s="15">
+        <v>6</v>
+      </c>
+      <c r="I139" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>12</v>
+      </c>
+      <c r="B140">
+        <v>9500</v>
+      </c>
+      <c r="D140" s="2">
+        <v>31</v>
+      </c>
+      <c r="E140" s="2">
+        <v>7</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>13</v>
+      </c>
+      <c r="B141">
+        <v>10400</v>
+      </c>
+      <c r="D141" s="2">
+        <v>55</v>
+      </c>
+      <c r="E141" s="2">
+        <v>5</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" s="15">
+        <v>62</v>
+      </c>
+      <c r="H141" s="15">
+        <v>5</v>
+      </c>
+      <c r="I141" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>13</v>
+      </c>
+      <c r="B142">
+        <v>10500</v>
+      </c>
+      <c r="D142" s="2">
+        <v>55</v>
+      </c>
+      <c r="E142" s="2">
+        <v>7</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>13</v>
+      </c>
+      <c r="B143">
+        <v>10600</v>
+      </c>
+      <c r="D143" s="2">
+        <v>55</v>
+      </c>
+      <c r="E143" s="2">
+        <v>6</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143" s="15">
+        <v>32</v>
+      </c>
+      <c r="H143" s="15">
+        <v>9</v>
+      </c>
+      <c r="I143" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J143" s="2">
+        <v>26</v>
+      </c>
+      <c r="K143" s="2">
+        <v>9</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>13</v>
+      </c>
+      <c r="B144">
+        <v>10700</v>
+      </c>
+      <c r="D144" s="2">
+        <v>31</v>
+      </c>
+      <c r="E144" s="2">
+        <v>8</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" s="15">
+        <v>32</v>
+      </c>
+      <c r="H144" s="15">
+        <v>8</v>
+      </c>
+      <c r="I144" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" s="2">
+        <v>62</v>
+      </c>
+      <c r="K144" s="2">
+        <v>5</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145">
+        <v>13</v>
+      </c>
+      <c r="B145">
+        <v>10800</v>
+      </c>
+      <c r="D145" s="2">
+        <v>31</v>
+      </c>
+      <c r="E145" s="2">
+        <v>8</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" s="15">
+        <v>62</v>
+      </c>
+      <c r="H145" s="15">
+        <v>4</v>
+      </c>
+      <c r="I145" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146">
+        <v>13</v>
+      </c>
+      <c r="B146">
+        <v>10900</v>
+      </c>
+      <c r="D146" s="2">
+        <v>31</v>
+      </c>
+      <c r="E146" s="2">
+        <v>9</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" s="15">
+        <v>32</v>
+      </c>
+      <c r="H146" s="15">
+        <v>8</v>
+      </c>
+      <c r="I146" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" s="2">
+        <v>62</v>
+      </c>
+      <c r="K146" s="2">
+        <v>4</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147">
+        <v>13</v>
+      </c>
+      <c r="B147">
+        <v>11000</v>
+      </c>
+      <c r="D147" s="2">
+        <v>55</v>
+      </c>
+      <c r="E147" s="2">
+        <v>6</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148">
+        <v>13</v>
+      </c>
+      <c r="B148">
+        <v>11100</v>
+      </c>
+      <c r="D148" s="2">
+        <v>55</v>
+      </c>
+      <c r="E148" s="2">
+        <v>7</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G148" s="15">
+        <v>27</v>
+      </c>
+      <c r="H148" s="15">
+        <v>7</v>
+      </c>
+      <c r="I148" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149">
+        <v>13</v>
+      </c>
+      <c r="B149">
+        <v>10400</v>
+      </c>
+      <c r="D149" s="2">
+        <v>55</v>
+      </c>
+      <c r="E149" s="2">
+        <v>5</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" s="15">
+        <v>62</v>
+      </c>
+      <c r="H149" s="15">
+        <v>5</v>
+      </c>
+      <c r="I149" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150">
+        <v>13</v>
+      </c>
+      <c r="B150">
+        <v>10500</v>
+      </c>
+      <c r="D150" s="2">
+        <v>55</v>
+      </c>
+      <c r="E150" s="2">
+        <v>7</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151">
+        <v>13</v>
+      </c>
+      <c r="B151">
+        <v>10600</v>
+      </c>
+      <c r="D151" s="2">
+        <v>55</v>
+      </c>
+      <c r="E151" s="2">
+        <v>6</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151" s="15">
+        <v>32</v>
+      </c>
+      <c r="H151" s="15">
+        <v>9</v>
+      </c>
+      <c r="I151" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J151" s="2">
+        <v>26</v>
+      </c>
+      <c r="K151" s="2">
+        <v>9</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152">
+        <v>13</v>
+      </c>
+      <c r="B152">
+        <v>10700</v>
+      </c>
+      <c r="D152" s="2">
+        <v>31</v>
+      </c>
+      <c r="E152" s="2">
+        <v>8</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G152" s="15">
+        <v>32</v>
+      </c>
+      <c r="H152" s="15">
+        <v>8</v>
+      </c>
+      <c r="I152" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J152" s="2">
+        <v>62</v>
+      </c>
+      <c r="K152" s="2">
+        <v>5</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153">
+        <v>13</v>
+      </c>
+      <c r="B153">
+        <v>10800</v>
+      </c>
+      <c r="D153" s="2">
+        <v>31</v>
+      </c>
+      <c r="E153" s="2">
+        <v>8</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153" s="15">
+        <v>62</v>
+      </c>
+      <c r="H153" s="15">
+        <v>4</v>
+      </c>
+      <c r="I153" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154">
+        <v>13</v>
+      </c>
+      <c r="B154">
+        <v>10900</v>
+      </c>
+      <c r="D154" s="2">
+        <v>31</v>
+      </c>
+      <c r="E154" s="2">
+        <v>9</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G154" s="15">
+        <v>32</v>
+      </c>
+      <c r="H154" s="15">
+        <v>8</v>
+      </c>
+      <c r="I154" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J154" s="2">
+        <v>62</v>
+      </c>
+      <c r="K154" s="2">
+        <v>4</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155">
+        <v>13</v>
+      </c>
+      <c r="B155">
+        <v>11000</v>
+      </c>
+      <c r="D155" s="2">
+        <v>55</v>
+      </c>
+      <c r="E155" s="2">
+        <v>6</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156">
+        <v>13</v>
+      </c>
+      <c r="B156">
+        <v>11100</v>
+      </c>
+      <c r="D156" s="2">
+        <v>55</v>
+      </c>
+      <c r="E156" s="2">
+        <v>7</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G156" s="15">
+        <v>27</v>
+      </c>
+      <c r="H156" s="15">
+        <v>7</v>
+      </c>
+      <c r="I156" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157">
+        <v>14</v>
+      </c>
+      <c r="B157">
+        <v>26400</v>
+      </c>
+      <c r="D157" s="2">
+        <v>31</v>
+      </c>
+      <c r="E157" s="2">
+        <v>9</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G157" s="15">
+        <v>37</v>
+      </c>
+      <c r="H157" s="15">
+        <v>5</v>
+      </c>
+      <c r="I157" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J157" s="2">
+        <v>63</v>
+      </c>
+      <c r="K157" s="2">
+        <v>5</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M157" s="15">
+        <v>38</v>
+      </c>
+      <c r="N157" s="15">
+        <v>5</v>
+      </c>
+      <c r="O157" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158">
+        <v>14</v>
+      </c>
+      <c r="B158">
+        <v>26800</v>
+      </c>
+      <c r="D158" s="2">
+        <v>37</v>
+      </c>
+      <c r="E158" s="2">
+        <v>5</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" s="15">
+        <v>31</v>
+      </c>
+      <c r="H158" s="15">
+        <v>9</v>
+      </c>
+      <c r="I158" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" s="2">
+        <v>63</v>
+      </c>
+      <c r="K158" s="2">
+        <v>5</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M158" s="15">
+        <v>38</v>
+      </c>
+      <c r="N158" s="15">
+        <v>5</v>
+      </c>
+      <c r="O158" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159">
+        <v>14</v>
+      </c>
+      <c r="B159">
+        <v>26200</v>
+      </c>
+      <c r="D159" s="2">
+        <v>37</v>
+      </c>
+      <c r="E159" s="2">
+        <v>5</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G159" s="15">
+        <v>63</v>
+      </c>
+      <c r="H159" s="15">
+        <v>5</v>
+      </c>
+      <c r="I159" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160">
+        <v>14</v>
+      </c>
+      <c r="B160">
+        <v>26300</v>
+      </c>
+      <c r="D160" s="2">
+        <v>37</v>
+      </c>
+      <c r="E160" s="2">
+        <v>5</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G160" s="15">
+        <v>31</v>
+      </c>
+      <c r="H160" s="15">
+        <v>9</v>
+      </c>
+      <c r="I160" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J160" s="2">
+        <v>63</v>
+      </c>
+      <c r="K160" s="2">
+        <v>5</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M160" s="15">
+        <v>38</v>
+      </c>
+      <c r="N160" s="15">
+        <v>5</v>
+      </c>
+      <c r="O160" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161">
+        <v>14</v>
+      </c>
+      <c r="B161">
+        <v>26000</v>
+      </c>
+      <c r="D161" s="2">
+        <v>37</v>
+      </c>
+      <c r="E161" s="2">
+        <v>5</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G161" s="15">
+        <v>31</v>
+      </c>
+      <c r="H161" s="15">
+        <v>9</v>
+      </c>
+      <c r="I161" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J161" s="2">
+        <v>63</v>
+      </c>
+      <c r="K161" s="2">
+        <v>5</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M161" s="15">
+        <v>32</v>
+      </c>
+      <c r="N161" s="15">
+        <v>9</v>
+      </c>
+      <c r="O161" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162">
+        <v>14</v>
+      </c>
+      <c r="B162">
+        <v>27900</v>
+      </c>
+      <c r="D162" s="2">
+        <v>31</v>
+      </c>
+      <c r="E162" s="2">
+        <v>9</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G162" s="15">
+        <v>37</v>
+      </c>
+      <c r="H162" s="15">
+        <v>5</v>
+      </c>
+      <c r="I162" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J162" s="2">
+        <v>63</v>
+      </c>
+      <c r="K162" s="2">
+        <v>5</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163">
+        <v>14</v>
+      </c>
+      <c r="B163">
+        <v>26700</v>
+      </c>
+      <c r="D163" s="2">
+        <v>37</v>
+      </c>
+      <c r="E163" s="2">
+        <v>4</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G163" s="15">
+        <v>31</v>
+      </c>
+      <c r="H163" s="15">
+        <v>8</v>
+      </c>
+      <c r="I163" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J163" s="2">
+        <v>63</v>
+      </c>
+      <c r="K163" s="2">
+        <v>4</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M163" s="15">
+        <v>38</v>
+      </c>
+      <c r="N163" s="15">
+        <v>4</v>
+      </c>
+      <c r="O163" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164">
+        <v>14</v>
+      </c>
+      <c r="B164">
+        <v>26500</v>
+      </c>
+      <c r="D164" s="2">
+        <v>37</v>
+      </c>
+      <c r="E164" s="2">
+        <v>4</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G164" s="15">
+        <v>31</v>
+      </c>
+      <c r="H164" s="15">
+        <v>8</v>
+      </c>
+      <c r="I164" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J164" s="2">
+        <v>63</v>
+      </c>
+      <c r="K164" s="2">
+        <v>4</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M164" s="15">
+        <v>38</v>
+      </c>
+      <c r="N164" s="15">
+        <v>4</v>
+      </c>
+      <c r="O164" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165">
+        <v>15</v>
+      </c>
+      <c r="B165">
+        <v>28200</v>
+      </c>
+      <c r="D165" s="2">
+        <v>31</v>
+      </c>
+      <c r="E165" s="2">
+        <v>10</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G165" s="15">
+        <v>37</v>
+      </c>
+      <c r="H165" s="15">
+        <v>6</v>
+      </c>
+      <c r="I165" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J165" s="2">
+        <v>63</v>
+      </c>
+      <c r="K165" s="2">
+        <v>5</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M165" s="15">
+        <v>38</v>
+      </c>
+      <c r="N165" s="15">
+        <v>5</v>
+      </c>
+      <c r="O165" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166">
+        <v>15</v>
+      </c>
+      <c r="B166">
+        <v>28000</v>
+      </c>
+      <c r="D166" s="2">
+        <v>31</v>
+      </c>
+      <c r="E166" s="2">
+        <v>10</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" s="15">
+        <v>37</v>
+      </c>
+      <c r="H166" s="15">
+        <v>6</v>
+      </c>
+      <c r="I166" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J166" s="2">
+        <v>63</v>
+      </c>
+      <c r="K166" s="2">
+        <v>5</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M166" s="15">
+        <v>38</v>
+      </c>
+      <c r="N166" s="15">
+        <v>5</v>
+      </c>
+      <c r="O166" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167">
+        <v>15</v>
+      </c>
+      <c r="B167">
+        <v>28400</v>
+      </c>
+      <c r="D167" s="2">
+        <v>31</v>
+      </c>
+      <c r="E167" s="2">
+        <v>10</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G167" s="15">
+        <v>37</v>
+      </c>
+      <c r="H167" s="15">
+        <v>6</v>
+      </c>
+      <c r="I167" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J167" s="2">
+        <v>63</v>
+      </c>
+      <c r="K167" s="2">
+        <v>5</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M167" s="15">
+        <v>38</v>
+      </c>
+      <c r="N167" s="15">
+        <v>5</v>
+      </c>
+      <c r="O167" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168">
+        <v>15</v>
+      </c>
+      <c r="B168">
+        <v>28600</v>
+      </c>
+      <c r="D168" s="2">
+        <v>31</v>
+      </c>
+      <c r="E168" s="2">
+        <v>10</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G168" s="15">
+        <v>37</v>
+      </c>
+      <c r="H168" s="15">
+        <v>6</v>
+      </c>
+      <c r="I168" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J168" s="2">
+        <v>63</v>
+      </c>
+      <c r="K168" s="2">
+        <v>5</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M168" s="15">
+        <v>38</v>
+      </c>
+      <c r="N168" s="15">
+        <v>5</v>
+      </c>
+      <c r="O168" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169">
+        <v>15</v>
+      </c>
+      <c r="B169">
+        <v>28100</v>
+      </c>
+      <c r="D169" s="2">
+        <v>31</v>
+      </c>
+      <c r="E169" s="2">
+        <v>10</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G169" s="15">
+        <v>37</v>
+      </c>
+      <c r="H169" s="15">
+        <v>6</v>
+      </c>
+      <c r="I169" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J169" s="2">
+        <v>63</v>
+      </c>
+      <c r="K169" s="2">
+        <v>5</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M169" s="15">
+        <v>38</v>
+      </c>
+      <c r="N169" s="15">
+        <v>5</v>
+      </c>
+      <c r="O169" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170">
+        <v>15</v>
+      </c>
+      <c r="B170">
+        <v>28700</v>
+      </c>
+      <c r="D170" s="2">
+        <v>31</v>
+      </c>
+      <c r="E170" s="2">
+        <v>10</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" s="15">
+        <v>37</v>
+      </c>
+      <c r="H170" s="15">
+        <v>6</v>
+      </c>
+      <c r="I170" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J170" s="2">
+        <v>63</v>
+      </c>
+      <c r="K170" s="2">
+        <v>5</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M170" s="15">
+        <v>38</v>
+      </c>
+      <c r="N170" s="15">
+        <v>5</v>
+      </c>
+      <c r="O170" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171">
+        <v>15</v>
+      </c>
+      <c r="B171">
+        <v>28500</v>
+      </c>
+      <c r="D171" s="2">
+        <v>31</v>
+      </c>
+      <c r="E171" s="2">
+        <v>10</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G171" s="15">
+        <v>37</v>
+      </c>
+      <c r="H171" s="15">
+        <v>6</v>
+      </c>
+      <c r="I171" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J171" s="2">
+        <v>63</v>
+      </c>
+      <c r="K171" s="2">
+        <v>5</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M171" s="15">
+        <v>38</v>
+      </c>
+      <c r="N171" s="15">
+        <v>5</v>
+      </c>
+      <c r="O171" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172">
+        <v>15</v>
+      </c>
+      <c r="B172">
+        <v>28300</v>
+      </c>
+      <c r="D172" s="2">
+        <v>31</v>
+      </c>
+      <c r="E172" s="2">
+        <v>10</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G172" s="15">
+        <v>37</v>
+      </c>
+      <c r="H172" s="15">
+        <v>6</v>
+      </c>
+      <c r="I172" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J172" s="2">
+        <v>63</v>
+      </c>
+      <c r="K172" s="2">
+        <v>5</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M172" s="15">
+        <v>38</v>
+      </c>
+      <c r="N172" s="15">
+        <v>5</v>
+      </c>
+      <c r="O172" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173">
+        <v>15</v>
+      </c>
+      <c r="B173">
+        <v>12300</v>
+      </c>
+      <c r="D173" s="2">
+        <v>55</v>
+      </c>
+      <c r="E173" s="2">
+        <v>9</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G173" s="15">
+        <v>32</v>
+      </c>
+      <c r="H173" s="15">
+        <v>9</v>
+      </c>
+      <c r="I173" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174">
+        <v>15</v>
+      </c>
+      <c r="B174">
+        <v>12500</v>
+      </c>
+      <c r="D174" s="2">
+        <v>31</v>
+      </c>
+      <c r="E174" s="2">
+        <v>9</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G174" s="15">
+        <v>32</v>
+      </c>
+      <c r="H174" s="15">
+        <v>9</v>
+      </c>
+      <c r="I174" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175">
+        <v>15</v>
+      </c>
+      <c r="B175">
+        <v>12700</v>
+      </c>
+      <c r="D175" s="2">
+        <v>31</v>
+      </c>
+      <c r="E175" s="2">
+        <v>9</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176">
+        <v>15</v>
+      </c>
+      <c r="B176">
+        <v>12800</v>
+      </c>
+      <c r="D176" s="2">
+        <v>31</v>
+      </c>
+      <c r="E176" s="2">
+        <v>9</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177">
+        <v>15</v>
+      </c>
+      <c r="B177">
+        <v>12900</v>
+      </c>
+      <c r="D177" s="2">
+        <v>55</v>
+      </c>
+      <c r="E177" s="2">
+        <v>9</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G177" s="15">
+        <v>32</v>
+      </c>
+      <c r="H177" s="15">
+        <v>9</v>
+      </c>
+      <c r="I177" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178">
+        <v>15</v>
+      </c>
+      <c r="B178">
+        <v>13100</v>
+      </c>
+      <c r="D178" s="2">
+        <v>31</v>
+      </c>
+      <c r="E178" s="2">
+        <v>9</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G178" s="15">
+        <v>32</v>
+      </c>
+      <c r="H178" s="15">
+        <v>9</v>
+      </c>
+      <c r="I178" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" s="2">
+        <v>26</v>
+      </c>
+      <c r="K178" s="2">
+        <v>9</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
+      <c r="A179">
+        <v>15</v>
+      </c>
+      <c r="B179">
+        <v>13300</v>
+      </c>
+      <c r="D179" s="2">
+        <v>55</v>
+      </c>
+      <c r="E179" s="2">
+        <v>9</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G179" s="15">
+        <v>32</v>
+      </c>
+      <c r="H179" s="15">
+        <v>9</v>
+      </c>
+      <c r="I179" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
+      <c r="A180">
+        <v>15</v>
+      </c>
+      <c r="B180">
+        <v>13400</v>
+      </c>
+      <c r="D180" s="2">
+        <v>31</v>
+      </c>
+      <c r="E180" s="2">
+        <v>9</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G180" s="15">
+        <v>32</v>
+      </c>
+      <c r="H180" s="15">
+        <v>9</v>
+      </c>
+      <c r="I180" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
+      <c r="A181">
+        <v>15</v>
+      </c>
+      <c r="B181">
+        <v>12300</v>
+      </c>
+      <c r="D181" s="2">
+        <v>55</v>
+      </c>
+      <c r="E181" s="2">
+        <v>9</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G181" s="15">
+        <v>32</v>
+      </c>
+      <c r="H181" s="15">
+        <v>9</v>
+      </c>
+      <c r="I181" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
+      <c r="A182">
+        <v>15</v>
+      </c>
+      <c r="B182">
+        <v>12500</v>
+      </c>
+      <c r="D182" s="2">
+        <v>31</v>
+      </c>
+      <c r="E182" s="2">
+        <v>9</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G182" s="15">
+        <v>32</v>
+      </c>
+      <c r="H182" s="15">
+        <v>9</v>
+      </c>
+      <c r="I182" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
+      <c r="A183">
+        <v>15</v>
+      </c>
+      <c r="B183">
+        <v>12700</v>
+      </c>
+      <c r="D183" s="2">
+        <v>31</v>
+      </c>
+      <c r="E183" s="2">
+        <v>9</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
+      <c r="A184">
+        <v>15</v>
+      </c>
+      <c r="B184">
+        <v>12800</v>
+      </c>
+      <c r="D184" s="2">
+        <v>31</v>
+      </c>
+      <c r="E184" s="2">
+        <v>9</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
+      <c r="A185">
+        <v>15</v>
+      </c>
+      <c r="B185">
+        <v>12900</v>
+      </c>
+      <c r="D185" s="2">
+        <v>55</v>
+      </c>
+      <c r="E185" s="2">
+        <v>9</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G185" s="15">
+        <v>32</v>
+      </c>
+      <c r="H185" s="15">
+        <v>9</v>
+      </c>
+      <c r="I185" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
+      <c r="A186">
+        <v>15</v>
+      </c>
+      <c r="B186">
+        <v>13100</v>
+      </c>
+      <c r="D186" s="2">
+        <v>31</v>
+      </c>
+      <c r="E186" s="2">
+        <v>9</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G186" s="15">
+        <v>32</v>
+      </c>
+      <c r="H186" s="15">
+        <v>9</v>
+      </c>
+      <c r="I186" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J186" s="2">
+        <v>26</v>
+      </c>
+      <c r="K186" s="2">
+        <v>9</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
+      <c r="A187">
+        <v>15</v>
+      </c>
+      <c r="B187">
+        <v>13300</v>
+      </c>
+      <c r="D187" s="2">
+        <v>55</v>
+      </c>
+      <c r="E187" s="2">
+        <v>9</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G187" s="15">
+        <v>32</v>
+      </c>
+      <c r="H187" s="15">
+        <v>9</v>
+      </c>
+      <c r="I187" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18">
+      <c r="A188">
+        <v>15</v>
+      </c>
+      <c r="B188">
+        <v>13400</v>
+      </c>
+      <c r="D188" s="2">
+        <v>31</v>
+      </c>
+      <c r="E188" s="2">
+        <v>9</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188" s="15">
+        <v>32</v>
+      </c>
+      <c r="H188" s="15">
+        <v>9</v>
+      </c>
+      <c r="I188" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
+      <c r="A189">
+        <v>16</v>
+      </c>
+      <c r="B189">
+        <v>30900</v>
+      </c>
+      <c r="D189" s="2">
+        <v>37</v>
+      </c>
+      <c r="E189" s="2">
+        <v>5</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G189" s="15">
+        <v>31</v>
+      </c>
+      <c r="H189" s="15">
+        <v>10</v>
+      </c>
+      <c r="I189" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J189" s="2">
+        <v>64</v>
+      </c>
+      <c r="K189" s="2">
+        <v>5</v>
+      </c>
+      <c r="L189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M189" s="15">
+        <v>38</v>
+      </c>
+      <c r="N189" s="15">
+        <v>5</v>
+      </c>
+      <c r="O189" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P189" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q189" s="2">
+        <v>5</v>
+      </c>
+      <c r="R189" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
+      <c r="A190">
+        <v>16</v>
+      </c>
+      <c r="B190">
+        <v>31200</v>
+      </c>
+      <c r="D190" s="2">
+        <v>37</v>
+      </c>
+      <c r="E190" s="2">
+        <v>5</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G190" s="15">
+        <v>31</v>
+      </c>
+      <c r="H190" s="15">
+        <v>10</v>
+      </c>
+      <c r="I190" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J190" s="2">
+        <v>64</v>
+      </c>
+      <c r="K190" s="2">
+        <v>5</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M190" s="15">
+        <v>38</v>
+      </c>
+      <c r="N190" s="15">
+        <v>5</v>
+      </c>
+      <c r="O190" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P190" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q190" s="2">
+        <v>5</v>
+      </c>
+      <c r="R190" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
+      <c r="A191">
+        <v>16</v>
+      </c>
+      <c r="B191">
+        <v>31100</v>
+      </c>
+      <c r="D191" s="2">
+        <v>37</v>
+      </c>
+      <c r="E191" s="2">
+        <v>5</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G191" s="15">
+        <v>31</v>
+      </c>
+      <c r="H191" s="15">
+        <v>10</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J191" s="2">
+        <v>64</v>
+      </c>
+      <c r="K191" s="2">
+        <v>5</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M191" s="15">
+        <v>38</v>
+      </c>
+      <c r="N191" s="15">
+        <v>5</v>
+      </c>
+      <c r="O191" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P191" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q191" s="2">
+        <v>5</v>
+      </c>
+      <c r="R191" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
+      <c r="A192">
+        <v>16</v>
+      </c>
+      <c r="B192">
+        <v>31000</v>
+      </c>
+      <c r="D192" s="2">
+        <v>37</v>
+      </c>
+      <c r="E192" s="2">
+        <v>5</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G192" s="15">
+        <v>31</v>
+      </c>
+      <c r="H192" s="15">
+        <v>10</v>
+      </c>
+      <c r="I192" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J192" s="2">
+        <v>64</v>
+      </c>
+      <c r="K192" s="2">
+        <v>5</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M192" s="15">
+        <v>38</v>
+      </c>
+      <c r="N192" s="15">
+        <v>5</v>
+      </c>
+      <c r="O192" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P192" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q192" s="2">
+        <v>5</v>
+      </c>
+      <c r="R192" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
+      <c r="A193">
+        <v>16</v>
+      </c>
+      <c r="B193">
+        <v>31300</v>
+      </c>
+      <c r="D193" s="2">
+        <v>37</v>
+      </c>
+      <c r="E193" s="2">
+        <v>5</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G193" s="15">
+        <v>31</v>
+      </c>
+      <c r="H193" s="15">
+        <v>10</v>
+      </c>
+      <c r="I193" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J193" s="2">
+        <v>64</v>
+      </c>
+      <c r="K193" s="2">
+        <v>5</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M193" s="15">
+        <v>38</v>
+      </c>
+      <c r="N193" s="15">
+        <v>5</v>
+      </c>
+      <c r="O193" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P193" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q193" s="2">
+        <v>5</v>
+      </c>
+      <c r="R193" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
+      <c r="A194">
+        <v>16</v>
+      </c>
+      <c r="B194">
+        <v>31400</v>
+      </c>
+      <c r="D194" s="2">
+        <v>37</v>
+      </c>
+      <c r="E194" s="2">
+        <v>5</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G194" s="15">
+        <v>31</v>
+      </c>
+      <c r="H194" s="15">
+        <v>10</v>
+      </c>
+      <c r="I194" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J194" s="2">
+        <v>64</v>
+      </c>
+      <c r="K194" s="2">
+        <v>5</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M194" s="15">
+        <v>38</v>
+      </c>
+      <c r="N194" s="15">
+        <v>5</v>
+      </c>
+      <c r="O194" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P194" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q194" s="2">
+        <v>5</v>
+      </c>
+      <c r="R194" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
+      <c r="A195">
+        <v>18</v>
+      </c>
+      <c r="B195">
+        <v>17300</v>
+      </c>
+      <c r="D195" s="2">
+        <v>31</v>
+      </c>
+      <c r="E195" s="2">
+        <v>11</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G195" s="15">
+        <v>37</v>
+      </c>
+      <c r="H195" s="15">
+        <v>6</v>
+      </c>
+      <c r="I195" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J195" s="2">
+        <v>32</v>
+      </c>
+      <c r="K195" s="2">
+        <v>11</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M195" s="15">
+        <v>38</v>
+      </c>
+      <c r="N195" s="15">
+        <v>5</v>
+      </c>
+      <c r="O195" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P195" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q195" s="2">
+        <v>5</v>
+      </c>
+      <c r="R195" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
+      <c r="A196">
+        <v>18</v>
+      </c>
+      <c r="B196">
+        <v>17500</v>
+      </c>
+      <c r="D196" s="2">
+        <v>31</v>
+      </c>
+      <c r="E196" s="2">
+        <v>11</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G196" s="15">
+        <v>37</v>
+      </c>
+      <c r="H196" s="15">
+        <v>6</v>
+      </c>
+      <c r="I196" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J196" s="2">
+        <v>26</v>
+      </c>
+      <c r="K196" s="2">
+        <v>11</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M196" s="15">
+        <v>63</v>
+      </c>
+      <c r="N196" s="15">
+        <v>5</v>
+      </c>
+      <c r="O196" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P196" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q196" s="2">
+        <v>5</v>
+      </c>
+      <c r="R196" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
+      <c r="A197">
+        <v>18</v>
+      </c>
+      <c r="B197">
+        <v>17600</v>
+      </c>
+      <c r="D197" s="2">
+        <v>31</v>
+      </c>
+      <c r="E197" s="2">
+        <v>11</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G197" s="15">
+        <v>37</v>
+      </c>
+      <c r="H197" s="15">
+        <v>6</v>
+      </c>
+      <c r="I197" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J197" s="2">
+        <v>32</v>
+      </c>
+      <c r="K197" s="2">
+        <v>11</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M197" s="15">
+        <v>38</v>
+      </c>
+      <c r="N197" s="15">
+        <v>5</v>
+      </c>
+      <c r="O197" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P197" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q197" s="2">
+        <v>5</v>
+      </c>
+      <c r="R197" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
+      <c r="A198">
+        <v>18</v>
+      </c>
+      <c r="B198">
+        <v>17900</v>
+      </c>
+      <c r="D198" s="2">
+        <v>55</v>
+      </c>
+      <c r="E198" s="2">
+        <v>11</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G198" s="15">
+        <v>37</v>
+      </c>
+      <c r="H198" s="15">
+        <v>6</v>
+      </c>
+      <c r="I198" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J198" s="2">
+        <v>38</v>
+      </c>
+      <c r="K198" s="2">
+        <v>5</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M198" s="15">
+        <v>62</v>
+      </c>
+      <c r="N198" s="15">
+        <v>11</v>
+      </c>
+      <c r="O198" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
+      <c r="A199">
+        <v>18</v>
+      </c>
+      <c r="B199">
+        <v>18200</v>
+      </c>
+      <c r="D199" s="2">
+        <v>31</v>
+      </c>
+      <c r="E199" s="2">
+        <v>11</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G199" s="15">
+        <v>37</v>
+      </c>
+      <c r="H199" s="15">
+        <v>6</v>
+      </c>
+      <c r="I199" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J199" s="2">
+        <v>62</v>
+      </c>
+      <c r="K199" s="2">
+        <v>11</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M199" s="15">
+        <v>32</v>
+      </c>
+      <c r="N199" s="15">
+        <v>11</v>
+      </c>
+      <c r="O199" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P199" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q199" s="2">
+        <v>5</v>
+      </c>
+      <c r="R199" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
+      <c r="A200">
+        <v>18</v>
+      </c>
+      <c r="B200">
+        <v>18300</v>
+      </c>
+      <c r="D200" s="2">
+        <v>31</v>
+      </c>
+      <c r="E200" s="2">
+        <v>11</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G200" s="15">
+        <v>37</v>
+      </c>
+      <c r="H200" s="15">
+        <v>6</v>
+      </c>
+      <c r="I200" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J200" s="2">
+        <v>63</v>
+      </c>
+      <c r="K200" s="2">
+        <v>5</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M200" s="15">
+        <v>38</v>
+      </c>
+      <c r="N200" s="15">
+        <v>5</v>
+      </c>
+      <c r="O200" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P200" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q200" s="2">
+        <v>11</v>
+      </c>
+      <c r="R200" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
+      <c r="A201">
+        <v>18</v>
+      </c>
+      <c r="B201">
+        <v>18400</v>
+      </c>
+      <c r="D201" s="2">
+        <v>31</v>
+      </c>
+      <c r="E201" s="2">
+        <v>11</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G201" s="15">
+        <v>37</v>
+      </c>
+      <c r="H201" s="15">
+        <v>6</v>
+      </c>
+      <c r="I201" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J201" s="2">
+        <v>38</v>
+      </c>
+      <c r="K201" s="2">
+        <v>5</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M201" s="15">
+        <v>63</v>
+      </c>
+      <c r="N201" s="15">
+        <v>5</v>
+      </c>
+      <c r="O201" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P201" s="2">
+        <v>62</v>
+      </c>
+      <c r="Q201" s="2">
+        <v>11</v>
+      </c>
+      <c r="R201" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
+      <c r="A202">
+        <v>18</v>
+      </c>
+      <c r="B202">
+        <v>18500</v>
+      </c>
+      <c r="D202" s="2">
+        <v>31</v>
+      </c>
+      <c r="E202" s="2">
+        <v>11</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G202" s="15">
+        <v>37</v>
+      </c>
+      <c r="H202" s="15">
+        <v>6</v>
+      </c>
+      <c r="I202" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J202" s="2">
+        <v>55</v>
+      </c>
+      <c r="K202" s="2">
+        <v>11</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M202" s="15">
+        <v>38</v>
+      </c>
+      <c r="N202" s="15">
+        <v>6</v>
+      </c>
+      <c r="O202" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
+      <c r="A203">
+        <v>19</v>
+      </c>
+      <c r="B203">
+        <v>24800</v>
+      </c>
+      <c r="D203" s="2">
+        <v>31</v>
+      </c>
+      <c r="E203" s="2">
+        <v>11</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G203" s="15">
+        <v>38</v>
+      </c>
+      <c r="H203" s="15">
+        <v>6</v>
+      </c>
+      <c r="I203" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J203" s="2">
+        <v>63</v>
+      </c>
+      <c r="K203" s="2">
+        <v>6</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
+      <c r="A204">
+        <v>19</v>
+      </c>
+      <c r="B204">
+        <v>23900</v>
+      </c>
+      <c r="D204" s="2">
+        <v>31</v>
+      </c>
+      <c r="E204" s="2">
+        <v>11</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G204" s="15">
+        <v>37</v>
+      </c>
+      <c r="H204" s="15">
+        <v>6</v>
+      </c>
+      <c r="I204" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J204" s="2">
+        <v>63</v>
+      </c>
+      <c r="K204" s="2">
+        <v>6</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M204" s="15">
+        <v>38</v>
+      </c>
+      <c r="N204" s="15">
+        <v>6</v>
+      </c>
+      <c r="O204" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P204" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q204" s="2">
+        <v>5</v>
+      </c>
+      <c r="R204" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
+      <c r="A205">
+        <v>19</v>
+      </c>
+      <c r="B205">
+        <v>24200</v>
+      </c>
+      <c r="D205" s="2">
+        <v>31</v>
+      </c>
+      <c r="E205" s="2">
+        <v>11</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G205" s="15">
+        <v>37</v>
+      </c>
+      <c r="H205" s="15">
+        <v>6</v>
+      </c>
+      <c r="I205" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J205" s="2">
+        <v>38</v>
+      </c>
+      <c r="K205" s="2">
+        <v>6</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M205" s="15">
+        <v>63</v>
+      </c>
+      <c r="N205" s="15">
+        <v>6</v>
+      </c>
+      <c r="O205" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
+      <c r="A206">
+        <v>19</v>
+      </c>
+      <c r="B206">
+        <v>24700</v>
+      </c>
+      <c r="D206" s="2">
+        <v>31</v>
+      </c>
+      <c r="E206" s="2">
+        <v>11</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G206" s="15">
+        <v>37</v>
+      </c>
+      <c r="H206" s="15">
+        <v>6</v>
+      </c>
+      <c r="I206" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J206" s="2">
+        <v>63</v>
+      </c>
+      <c r="K206" s="2">
+        <v>6</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
+      <c r="A207">
+        <v>19</v>
+      </c>
+      <c r="B207">
+        <v>24600</v>
+      </c>
+      <c r="D207" s="2">
+        <v>31</v>
+      </c>
+      <c r="E207" s="2">
+        <v>11</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G207" s="15">
+        <v>37</v>
+      </c>
+      <c r="H207" s="15">
+        <v>6</v>
+      </c>
+      <c r="I207" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J207" s="2">
+        <v>63</v>
+      </c>
+      <c r="K207" s="2">
+        <v>6</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M207" s="15">
+        <v>38</v>
+      </c>
+      <c r="N207" s="15">
+        <v>6</v>
+      </c>
+      <c r="O207" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
+      <c r="A208">
+        <v>19</v>
+      </c>
+      <c r="B208">
+        <v>24000</v>
+      </c>
+      <c r="D208" s="2">
+        <v>31</v>
+      </c>
+      <c r="E208" s="2">
+        <v>11</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G208" s="15">
+        <v>37</v>
+      </c>
+      <c r="H208" s="15">
+        <v>6</v>
+      </c>
+      <c r="I208" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J208" s="2">
+        <v>38</v>
+      </c>
+      <c r="K208" s="2">
+        <v>6</v>
+      </c>
+      <c r="L208" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M208" s="15">
+        <v>63</v>
+      </c>
+      <c r="N208" s="15">
+        <v>6</v>
+      </c>
+      <c r="O208" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
+      <c r="A209">
+        <v>19</v>
+      </c>
+      <c r="B209">
+        <v>23800</v>
+      </c>
+      <c r="D209" s="2">
+        <v>31</v>
+      </c>
+      <c r="E209" s="2">
+        <v>11</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G209" s="15">
+        <v>37</v>
+      </c>
+      <c r="H209" s="15">
+        <v>6</v>
+      </c>
+      <c r="I209" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J209" s="2">
+        <v>63</v>
+      </c>
+      <c r="K209" s="2">
+        <v>6</v>
+      </c>
+      <c r="L209" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
+      <c r="A210">
+        <v>19</v>
+      </c>
+      <c r="B210">
+        <v>24300</v>
+      </c>
+      <c r="D210" s="2">
+        <v>31</v>
+      </c>
+      <c r="E210" s="2">
+        <v>11</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G210" s="15">
+        <v>37</v>
+      </c>
+      <c r="H210" s="15">
+        <v>6</v>
+      </c>
+      <c r="I210" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J210" s="2">
+        <v>63</v>
+      </c>
+      <c r="K210" s="2">
+        <v>6</v>
+      </c>
+      <c r="L210" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M210" s="15">
+        <v>38</v>
+      </c>
+      <c r="N210" s="15">
+        <v>6</v>
+      </c>
+      <c r="O210" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA211">
+    <sortCondition ref="A2:A211"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73913924-0A5A-F941-A24F-5EE34CEF41DB}">
   <dimension ref="A1:BF211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G215" sqref="G215"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -8009,7 +14001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD93D1C0-6563-2640-AF84-D98EFC162682}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
